--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnesPekdas\Desktop\Projeler\BT-THY\Otomasyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3BB5FA-187C-400B-8F05-E4577E6CDDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22582AE-C64F-4495-9C07-C4F632C5E8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Target system address</t>
   </si>
@@ -39,9 +40,6 @@
     <t>pam118064</t>
   </si>
   <si>
-    <t>teknik2-scan1.teknik.thynet.thy.com</t>
-  </si>
-  <si>
     <t>SSH, WINSCP</t>
   </si>
   <si>
@@ -69,15 +67,9 @@
     <t>SSH</t>
   </si>
   <si>
-    <t>WINSCP</t>
-  </si>
-  <si>
     <t>RDP</t>
   </si>
   <si>
-    <t>10.50.50.56</t>
-  </si>
-  <si>
     <t>teknik2</t>
   </si>
   <si>
@@ -93,13 +85,70 @@
     <t>SQL DEV</t>
   </si>
   <si>
-    <t>10.50.50.101</t>
-  </si>
-  <si>
     <t>DatabaseName</t>
   </si>
   <si>
-    <t>10.50.50.60</t>
+    <t>WINSCP,TOAD</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>127.0.1.1 bastion.quasys.local bastion</t>
+  </si>
+  <si>
+    <t>192.168.10.30 bastion.quasys.local bastion</t>
+  </si>
+  <si>
+    <t>192.168.10.31 conjur.quasys.local conjur</t>
+  </si>
+  <si>
+    <t>192.168.10.32 master.quasys.local master</t>
+  </si>
+  <si>
+    <t>192.168.10.33 standby1.quasys.local standby1</t>
+  </si>
+  <si>
+    <t>192.168.10.34 standby2.quasys.local standby2</t>
+  </si>
+  <si>
+    <t>192.168.10.35 standby3.quasys.local standby3</t>
+  </si>
+  <si>
+    <t>192.168.10.36 standby4.quasys.local standby4</t>
+  </si>
+  <si>
+    <t>192.168.10.37 k8s.quasys.local k8s</t>
+  </si>
+  <si>
+    <t>192.168.10.20 bt.quasys.local</t>
+  </si>
+  <si>
+    <t>192.168.10.31</t>
+  </si>
+  <si>
+    <t>master.quasys.local</t>
+  </si>
+  <si>
+    <t>192.168.10.33</t>
+  </si>
+  <si>
+    <t>192.168.10.34</t>
+  </si>
+  <si>
+    <t>standby3.quasys.local standby3</t>
+  </si>
+  <si>
+    <t>bt.quasys.local</t>
+  </si>
+  <si>
+    <t>192.168.10.37</t>
+  </si>
+  <si>
+    <t>standby2.quasys.local</t>
+  </si>
+  <si>
+    <t>standby1.quasys.local</t>
   </si>
 </sst>
 </file>
@@ -459,7 +508,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -482,16 +531,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -499,10 +548,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -515,10 +564,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -531,10 +580,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -547,10 +596,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -563,10 +612,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
@@ -576,72 +625,72 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3">
         <v>1521</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="3">
         <v>1521</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -650,4 +699,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A7873E-8622-4D7D-B36F-126B5FC9850B}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnesPekdas\Desktop\Projeler\BT-THY\Otomasyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22582AE-C64F-4495-9C07-C4F632C5E8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDB5CB1-B6A3-47D3-8AD4-18B9CB47E75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-240" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>Target system address</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>standby1.quasys.local</t>
+  </si>
+  <si>
+    <t>standby3.quasys.locals</t>
+  </si>
+  <si>
+    <t>bastion.quasys.local</t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -612,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -684,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>

--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnesPekdas\Desktop\Projeler\BT-THY\Otomasyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDB5CB1-B6A3-47D3-8AD4-18B9CB47E75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB61ED5B-A609-47B7-88A1-0D956901072A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-240" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>Target system address</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>bastion.quasys.local</t>
+  </si>
+  <si>
+    <t>pam118065</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -599,7 +602,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>35</v>

--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnesPekdas\Desktop\Projeler\BT-THY\Otomasyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB61ED5B-A609-47B7-88A1-0D956901072A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E758908-6850-4CEB-8BCA-455F5C0675B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-240" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Target system address</t>
   </si>
@@ -154,10 +154,13 @@
     <t>standby3.quasys.locals</t>
   </si>
   <si>
-    <t>bastion.quasys.local</t>
-  </si>
-  <si>
     <t>pam118065</t>
+  </si>
+  <si>
+    <t>sinav.quasys.local</t>
+  </si>
+  <si>
+    <t>192.168.10.125</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -557,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -602,7 +605,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>35</v>
@@ -693,7 +696,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
